--- a/dist/document/dest/2020/10/doctors/85.xlsx
+++ b/dist/document/dest/2020/10/doctors/85.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="1">
-        <v>4680000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>429</v>
       </c>
-      <c r="C3" s="1">
-        <v>3539250</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>5380</v>
       </c>
-      <c r="C4" s="1">
-        <v>41426000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>3960</v>
       </c>
-      <c r="C5" s="1">
-        <v>18216000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
-        <v>66600</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>567</v>
       </c>
-      <c r="C7" s="1">
-        <v>4085235</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>128</v>
       </c>
-      <c r="C8" s="1">
-        <v>1689600</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>5794</v>
       </c>
-      <c r="C9" s="1">
-        <v>19989300</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>453</v>
       </c>
-      <c r="C10" s="1">
-        <v>3886740</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="1">
-        <v>350000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>110</v>
       </c>
-      <c r="C12" s="1">
-        <v>1754500</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>114</v>
       </c>
-      <c r="C13" s="1">
-        <v>1843380</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
-        <v>246400</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>480</v>
       </c>
-      <c r="C15" s="1">
-        <v>9504000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>208</v>
       </c>
-      <c r="C16" s="1">
-        <v>3363360</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>1845</v>
       </c>
-      <c r="C17" s="1">
-        <v>7638300</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
-        <v>92200</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>750</v>
       </c>
-      <c r="C19" s="1">
-        <v>2501250</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>40</v>
       </c>
-      <c r="C20" s="1">
-        <v>18200</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>210</v>
       </c>
-      <c r="C21" s="1">
-        <v>3811500</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>420</v>
       </c>
-      <c r="C22" s="1">
-        <v>2270100</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>1150</v>
       </c>
-      <c r="C23" s="1">
-        <v>9936000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>408</v>
       </c>
-      <c r="C24" s="1">
-        <v>1266840</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>176</v>
       </c>
-      <c r="C25" s="1">
-        <v>2671680</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>434</v>
       </c>
-      <c r="C26" s="1">
-        <v>2245950</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>60</v>
       </c>
-      <c r="C27" s="1">
-        <v>35400</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>54</v>
       </c>
-      <c r="C28" s="1">
-        <v>238680</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>718</v>
       </c>
-      <c r="C29" s="1">
-        <v>6997628</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>8</v>
       </c>
-      <c r="C30" s="1">
-        <v>790400</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -724,7 +637,7 @@
         <v>24120</v>
       </c>
       <c r="C31" s="1">
-        <v>155154493</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/85.xlsx
+++ b/dist/document/dest/2020/10/doctors/85.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,247 +402,972 @@
         <v>Androgel Gel (Testosterone 50mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2340000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Androgel Gel (Testosterone 50mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>429</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2340000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>5380</v>
+        <v>115</v>
+      </c>
+      <c r="C4" s="1">
+        <v>948750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>3960</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>140250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bisolvon 8 (Bromhexine 8mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="C6" s="1">
+        <v>346500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>567</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="1">
+        <v>280500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B8" s="1">
-        <v>128</v>
+        <v>510</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3927000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B9" s="1">
-        <v>5794</v>
+        <v>300</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2310000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Dagocti (Dutasteride 0.5mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B10" s="1">
-        <v>453</v>
+        <v>465</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3580500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Enat (Vitamin E 400)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B12" s="1">
-        <v>110</v>
+        <v>2716</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20913200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>114</v>
+        <v>270</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1242000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>14</v>
+        <v>180</v>
+      </c>
+      <c r="C14" s="1">
+        <v>828000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>480</v>
+        <v>360</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1656000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Pharcotinex</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>1845</v>
+        <v>1770</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8142000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Phosphalugel (Colloidal aluminium phosphate)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>108075</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>750</v>
+        <v>123</v>
+      </c>
+      <c r="C19" s="1">
+        <v>886215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>151305</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>210</v>
+        <v>247</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1779635</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>420</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>132000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>1150</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Strecalis (Eperisone 50mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>408</v>
+        <v>58</v>
+      </c>
+      <c r="C24" s="1">
+        <v>765600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B25" s="1">
-        <v>176</v>
+        <v>480</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1656000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B26" s="1">
-        <v>434</v>
+        <v>360</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1242000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Tragutan (Eucalpyptol, tinh dầu gừng, tinh dầu tần, menthol)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B27" s="1">
-        <v>60</v>
+        <v>435</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1500750</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Transamin 500mg (Tranexamic)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B28" s="1">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="C28" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B29" s="1">
-        <v>718</v>
+        <v>2416</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8335200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Zitromax (Azithromycin 500mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>47740</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
+        <v>Dagocti (Dutasteride 0.5mg)</v>
+      </c>
+      <c r="B31" s="1">
+        <v>135</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1158300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Dagocti (Dutasteride 0.5mg)</v>
+      </c>
+      <c r="B32" s="1">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <v>146300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1">
+        <v>239250</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1">
+        <v>478500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1">
+        <v>797500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1212200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>90</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1455300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1">
+        <v>970200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1">
+        <v>352000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>871200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1">
+        <v>950400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1">
+        <v>673200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>238</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4712400</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <v>49910</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>28</v>
+      </c>
+      <c r="C49" s="1">
+        <v>452760</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1422960</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1">
+        <v>226380</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Meloflam (meloxicam 15mg)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Meloflam (meloxicam 15mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>27</v>
+      </c>
+      <c r="C54" s="1">
+        <v>178200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Meloflam (meloxicam 15mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B56" s="1">
+        <v>270</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1117800</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B57" s="1">
+        <v>90</v>
+      </c>
+      <c r="C57" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B58" s="1">
+        <v>585</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2421900</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B59" s="1">
+        <v>90</v>
+      </c>
+      <c r="C59" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1">
+        <v>200100</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>510</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1700850</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>120</v>
+      </c>
+      <c r="C62" s="1">
+        <v>400200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v xml:space="preserve">Prednisone </v>
+      </c>
+      <c r="B63" s="1">
+        <v>40</v>
+      </c>
+      <c r="C63" s="1">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>90</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1633500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1">
+        <v>544500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1089000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>120</v>
+      </c>
+      <c r="C67" s="1">
+        <v>648600</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>240</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2073600</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>270</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2332800</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1">
+        <v>419175</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1">
+        <v>93150</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>14</v>
+      </c>
+      <c r="C72" s="1">
+        <v>212520</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1092960</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>14</v>
+      </c>
+      <c r="C74" s="1">
+        <v>212520</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1">
+        <v>212520</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>20</v>
+      </c>
+      <c r="C76" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>63</v>
+      </c>
+      <c r="C77" s="1">
+        <v>326025</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>186</v>
+      </c>
+      <c r="C78" s="1">
+        <v>962550</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>51</v>
+      </c>
+      <c r="C79" s="1">
+        <v>263925</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Vesicare (Solifenacin succinate 5mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>35</v>
+      </c>
+      <c r="C80" s="1">
+        <v>987000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Vesicare (Solifenacin succinate 5mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>20</v>
+      </c>
+      <c r="C81" s="1">
+        <v>564000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1">
+        <v>252560</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>156</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1520376</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>91</v>
+      </c>
+      <c r="C84" s="1">
+        <v>886886</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>28</v>
+      </c>
+      <c r="C85" s="1">
+        <v>272888</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1">
+        <v>194920</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Zitromax (Azithromycin 500mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1">
+        <v>592800</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Zitromax (Azithromycin 500mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>197600</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B31" s="1">
-        <v>24120</v>
-      </c>
-      <c r="C31" s="1">
-        <v>NaN</v>
+      <c r="B89" s="1">
+        <v>15973</v>
+      </c>
+      <c r="C89" s="1">
+        <v>109275605</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C89"/>
   </ignoredErrors>
 </worksheet>
 </file>